--- a/data/trans_bre/P24_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>101,57%</t>
+          <t>19,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>14,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>101,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>243,36%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>171,13%</t>
+          <t>82,19%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>232,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73,96%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>171,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>92,4%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 23,17</t>
+          <t>5,01; 23,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 16,3</t>
+          <t>1,12; 16,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 20,48</t>
+          <t>2,29; 21,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 26,19</t>
+          <t>8,01; 24,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 29,64</t>
+          <t>-1,86; 15,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,78; 220,46</t>
+          <t>7,82; 29,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 277,41</t>
+          <t>1,04; 25,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,4; 214,66</t>
+          <t>22,57; 222,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,1; 666,24</t>
+          <t>4,36; 280,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 449,12</t>
+          <t>8,01; 224,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>58,74; 681,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 271,01</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33,86; 426,68</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 256,44</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>381,9%</t>
+          <t>22,61</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>57,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>143,28%</t>
+          <t>387,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>71,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>145,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>175,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>245,19%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 16,24</t>
+          <t>-3,02; 16,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 28,26</t>
+          <t>12,72; 27,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 16,78</t>
+          <t>1,87; 16,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,55; 23,05</t>
+          <t>8,22; 24,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 19,9</t>
+          <t>7,27; 24,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 160,44</t>
+          <t>-1,07; 19,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>143,35; 1087,48</t>
+          <t>13,89; 31,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 177,5</t>
+          <t>-18,43; 172,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,28; 289,43</t>
+          <t>148,05; 1035,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 144,3</t>
+          <t>10,69; 158,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55,19; 308,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49,87; 476,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 144,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>96,94; 660,82</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>15,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>19,39</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>17,99</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>153,44%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>242,33%</t>
+          <t>27,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>171,35%</t>
+          <t>153,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>181,0%</t>
+          <t>210,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>140,43%</t>
+          <t>179,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>181,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>203,04%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>140,42%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>294,16%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 21,36</t>
+          <t>8,36; 21,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 23,55</t>
+          <t>9,91; 22,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 19,62</t>
+          <t>8,65; 20,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 23,29</t>
+          <t>11,97; 23,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 25,17</t>
+          <t>12,93; 25,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,64; 299,82</t>
+          <t>10,84; 25,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>113,31; 464,23</t>
+          <t>20,23; 35,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,19; 331,1</t>
+          <t>61,55; 291,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,56; 318,95</t>
+          <t>87,81; 420,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,88; 254,76</t>
+          <t>68,12; 353,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>94,05; 334,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>95,83; 411,35</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>67,67; 275,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>160,95; 572,2</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,67</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,19</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>21,2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>179,33%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>174,92%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>251,6%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>191,43%</t>
+          <t>170,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>163,01%</t>
+          <t>257,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>184,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>295,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>163,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>143,06%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,08</t>
+          <t>7,24; 16,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 18,92</t>
+          <t>5,28; 18,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 24,22</t>
+          <t>13,81; 24,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,62</t>
+          <t>8,76; 19,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 28,83</t>
+          <t>14,28; 26,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,39; 353,93</t>
+          <t>14,12; 29,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,74; 368,09</t>
+          <t>10,66; 25,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>133,07; 454,66</t>
+          <t>78,65; 357,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,73; 349,28</t>
+          <t>30,58; 392,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,93; 309,11</t>
+          <t>141,52; 447,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>82,71; 321,35</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>144,51; 562,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>83,45; 304,6</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>58,82; 271,83</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>197,57%</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,79%</t>
+          <t>13,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>106,6%</t>
+          <t>197,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>270,1%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>180,56%</t>
+          <t>108,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>272,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>168,1%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>180,66%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>71,19%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,61</t>
+          <t>4,51; 15,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 11,93</t>
+          <t>-0,06; 12,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 14,01</t>
+          <t>2,85; 13,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,27</t>
+          <t>7,8; 19,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 27,53</t>
+          <t>3,62; 16,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,89; 488,71</t>
+          <t>12,01; 27,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 276,56</t>
+          <t>3,74; 22,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,3; 248,54</t>
+          <t>57,86; 470,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>116,65; 574,18</t>
+          <t>-9,63; 287,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,53; 343,37</t>
+          <t>22,65; 230,25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>103,59; 615,97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37,08; 432,36</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>77,25; 360,21</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 151,14</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>11,17</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7,37</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>278,04%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,73%</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>241,13%</t>
+          <t>277,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>288,72%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>246,11%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>359,2%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>203,23%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>86,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>285,73%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,21</t>
+          <t>3,3; 12,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 10,48</t>
+          <t>-0,24; 12,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,58</t>
+          <t>4,47; 14,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 15,06</t>
+          <t>5,82; 17,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 16,44</t>
+          <t>3,58; 18,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,96; 1062,33</t>
+          <t>-0,79; 16,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 305,27</t>
+          <t>8,68; 24,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>62,28; 765,74</t>
+          <t>34,87; 1039,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,56; 982,39</t>
+          <t>-7,62; 381,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 300,28</t>
+          <t>60,4; 630,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>71,13; 1269,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,47; 716,02</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,99; 279,17</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>84,69; 746,16</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,07</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>14,49</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>15,15</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>121,17%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>166,48%</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>134,09%</t>
+          <t>121,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>190,85%</t>
+          <t>163,01%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>118,08%</t>
+          <t>132,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>194,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>182,84%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>118,1%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>158,35%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,33</t>
+          <t>7,76; 13,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,34</t>
+          <t>8,63; 13,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 14,74</t>
+          <t>9,47; 14,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,1</t>
+          <t>12,1; 17,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 18,65</t>
+          <t>11,49; 17,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,53; 175,14</t>
+          <t>11,41; 18,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100,62; 243,09</t>
+          <t>15,11; 21,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>92,16; 188,93</t>
+          <t>72,93; 185,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>132,65; 273,8</t>
+          <t>101,93; 238,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,56; 165,42</t>
+          <t>90,44; 183,26</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>141,23; 271,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>118,55; 261,31</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>75,22; 165,96</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>109,43; 222,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
